--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aimirausenova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aimirausenova/Documents/git/CucumberFramework/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B963416-618E-0745-88F1-4893B8D86A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{02140196-D338-894F-9385-51C2083DC248}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{95DA8E23-ECD1-454E-8AB6-C46EA1037914}"/>
+    <workbookView activeTab="2" windowHeight="16320" windowWidth="28040" xWindow="380" xr2:uid="{95DA8E23-ECD1-454E-8AB6-C46EA1037914}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,8 +32,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>123 State str</t>
+  </si>
+  <si>
+    <t>Des plaines</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Erickson</t>
+  </si>
+  <si>
+    <t>321 Clark str</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>222 Devon ave</t>
+  </si>
+  <si>
+    <t>Des Plaines</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Conor</t>
+  </si>
+  <si>
+    <t>234 Randolph str</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>TypeOfService</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EC2 Instances</t>
+  </si>
+  <si>
+    <t>EC2 Dedicated Hosts</t>
+  </si>
+  <si>
+    <t>EBS Volumes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Europe Employees</t>
+  </si>
+  <si>
+    <t>Active Employees</t>
+  </si>
+  <si>
+    <t>Expected # of Employees</t>
+  </si>
+  <si>
+    <t>Actual # of employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Execution Status </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -59,16 +193,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,10 +219,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -123,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -175,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -286,21 +420,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -369,20 +503,225 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAF8088-8B74-DF44-A6C9-B68DBA5CD995}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAF8088-8B74-DF44-A6C9-B68DBA5CD995}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAB8906-F3C8-584E-B19B-52B93655D708}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.83203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>243.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>4421.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AD184A-DEAF-4249-AF36-3CB7A56590AE}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>